--- a/Dati contagi nelle scuole/Regioni/Friuli-Venezia Giulia/RILEVAZIONE COVID-19 NELLE SCUOLE STATALI DEL FVG_regionale.xlsx
+++ b/Dati contagi nelle scuole/Regioni/Friuli-Venezia Giulia/RILEVAZIONE COVID-19 NELLE SCUOLE STATALI DEL FVG_regionale.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/francescobranda/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/francescobranda/Desktop/Università/Scientific_Papers/Personal/Work_in_progress/COVID-19/Davide Tosi/Orizzonte Scuola /Regioni/Friuli-Venezia Giulia/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53F2898C-EA5E-DB49-8B78-7C1DEAA8E091}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFBBF3D8-8DF1-3F4B-A4F2-88E6BC63F818}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16920" yWindow="800" windowWidth="18140" windowHeight="15500" activeTab="4" xr2:uid="{22C4DE2E-C98A-5A4E-BEE0-1E8E21B520F3}"/>
+    <workbookView xWindow="16420" yWindow="760" windowWidth="12380" windowHeight="15500" activeTab="4" xr2:uid="{22C4DE2E-C98A-5A4E-BEE0-1E8E21B520F3}"/>
   </bookViews>
   <sheets>
     <sheet name="Personale ATA" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
     <sheet name="I Grado" sheetId="4" r:id="rId4"/>
     <sheet name="II Grado" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="438" uniqueCount="23">
   <si>
     <t>Data</t>
   </si>
@@ -78,6 +78,36 @@
   <si>
     <t>Studenti</t>
   </si>
+  <si>
+    <t>13/09/2021 - 18/09/2021</t>
+  </si>
+  <si>
+    <t>20/09/2021 - 25/09/2021</t>
+  </si>
+  <si>
+    <t>27/09/2021 - 03/10/2021</t>
+  </si>
+  <si>
+    <t>04/10/2021 - 10/10/2021</t>
+  </si>
+  <si>
+    <t>11/10/2021 - 17/10/2021</t>
+  </si>
+  <si>
+    <t>18/10/2021 - 24/10/2021</t>
+  </si>
+  <si>
+    <t>01/11/2021 - 07/11/2021</t>
+  </si>
+  <si>
+    <t>08/11/2021 - 14/11/2021</t>
+  </si>
+  <si>
+    <t>15/11/2021 - 21/11/2021</t>
+  </si>
+  <si>
+    <t>22/11/2021 - 28/11/2021</t>
+  </si>
 </sst>
 </file>
 
@@ -112,9 +142,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -429,10 +460,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{121A6DDE-E74E-2542-80AB-86B57FB1660E}">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -459,21 +490,221 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="1">
+        <v>5244</v>
+      </c>
+      <c r="C2" s="1">
+        <v>4</v>
+      </c>
+      <c r="D2" s="1">
+        <v>7</v>
+      </c>
+      <c r="E2" s="1">
+        <v>4</v>
+      </c>
+      <c r="F2" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="1">
+        <v>5036</v>
+      </c>
+      <c r="C3" s="1">
+        <v>2</v>
+      </c>
+      <c r="D3" s="1">
+        <v>2</v>
+      </c>
+      <c r="E3" s="1">
+        <v>5</v>
+      </c>
+      <c r="F3" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="1">
+        <v>5036</v>
+      </c>
+      <c r="C4" s="1">
+        <v>0</v>
+      </c>
+      <c r="D4" s="1">
+        <v>0</v>
+      </c>
+      <c r="E4" s="1">
+        <v>2</v>
+      </c>
+      <c r="F4" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="1">
+        <v>5036</v>
+      </c>
+      <c r="C5" s="1">
         <v>1</v>
       </c>
-      <c r="B2" s="1">
+      <c r="D5" s="1">
+        <v>1</v>
+      </c>
+      <c r="E5" s="1">
+        <v>5</v>
+      </c>
+      <c r="F5" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" s="1">
+        <v>5180</v>
+      </c>
+      <c r="C6" s="1">
+        <v>4</v>
+      </c>
+      <c r="D6" s="1">
+        <v>5</v>
+      </c>
+      <c r="E6" s="1">
+        <v>8</v>
+      </c>
+      <c r="F6" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" s="1">
+        <v>5244</v>
+      </c>
+      <c r="C7" s="1">
+        <v>1</v>
+      </c>
+      <c r="D7" s="1">
+        <v>3</v>
+      </c>
+      <c r="E7" s="1">
+        <v>13</v>
+      </c>
+      <c r="F7" s="1">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" s="1">
+        <v>5036</v>
+      </c>
+      <c r="C8" s="1">
+        <v>4</v>
+      </c>
+      <c r="D8" s="1">
+        <v>12</v>
+      </c>
+      <c r="E8" s="1">
+        <v>14</v>
+      </c>
+      <c r="F8" s="1">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" s="1">
         <v>4073</v>
       </c>
-      <c r="C2">
+      <c r="C9" s="1">
+        <v>12</v>
+      </c>
+      <c r="D9" s="1">
+        <v>19</v>
+      </c>
+      <c r="E9" s="1">
+        <v>21</v>
+      </c>
+      <c r="F9" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" s="1">
+        <v>4073</v>
+      </c>
+      <c r="C10" s="1">
+        <v>12</v>
+      </c>
+      <c r="D10" s="1">
+        <v>22</v>
+      </c>
+      <c r="E10" s="1">
+        <v>19</v>
+      </c>
+      <c r="F10" s="1">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" s="1">
+        <v>4073</v>
+      </c>
+      <c r="C11" s="1">
+        <v>20</v>
+      </c>
+      <c r="D11" s="1">
+        <v>27</v>
+      </c>
+      <c r="E11" s="1">
+        <v>17</v>
+      </c>
+      <c r="F11" s="1">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>1</v>
+      </c>
+      <c r="B12" s="1">
+        <v>4073</v>
+      </c>
+      <c r="C12" s="1">
         <v>14</v>
       </c>
-      <c r="D2">
+      <c r="D12" s="1">
         <v>29</v>
       </c>
-      <c r="E2">
+      <c r="E12" s="1">
         <v>25</v>
       </c>
-      <c r="F2">
+      <c r="F12" s="1">
         <v>37</v>
       </c>
     </row>
@@ -484,10 +715,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B737C05B-D467-874A-9343-0E278463B46A}">
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:G44"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B4"/>
+    <sheetView topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="A22" sqref="A22:B44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -517,70 +748,816 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="B2" t="s">
         <v>8</v>
       </c>
       <c r="C2" s="1">
-        <v>13593</v>
-      </c>
-      <c r="D2">
-        <v>19</v>
-      </c>
-      <c r="E2">
-        <v>41</v>
-      </c>
-      <c r="F2">
-        <v>286</v>
-      </c>
-      <c r="G2">
-        <v>444</v>
+        <v>20826</v>
+      </c>
+      <c r="D2" s="1">
+        <v>1</v>
+      </c>
+      <c r="E2" s="1">
+        <v>1</v>
+      </c>
+      <c r="F2" s="1">
+        <v>4</v>
+      </c>
+      <c r="G2" s="1">
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="B3" t="s">
         <v>9</v>
       </c>
       <c r="C3" s="1">
-        <v>1579</v>
-      </c>
-      <c r="D3">
-        <v>15</v>
-      </c>
-      <c r="E3">
-        <v>23</v>
-      </c>
-      <c r="F3">
-        <v>34</v>
-      </c>
-      <c r="G3">
-        <v>46</v>
+        <v>2537</v>
+      </c>
+      <c r="D3" s="1">
+        <v>4</v>
+      </c>
+      <c r="E3" s="1">
+        <v>5</v>
+      </c>
+      <c r="F3" s="1">
+        <v>84</v>
+      </c>
+      <c r="G3" s="1">
+        <v>100</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="1">
+        <v>1050</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="1">
+        <v>20362</v>
+      </c>
+      <c r="D6" s="1">
+        <v>0</v>
+      </c>
+      <c r="E6" s="1">
         <v>1</v>
       </c>
-      <c r="B4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4">
+      <c r="F6" s="1">
+        <v>6</v>
+      </c>
+      <c r="G6" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="1">
+        <v>2452</v>
+      </c>
+      <c r="D7" s="1">
+        <v>7</v>
+      </c>
+      <c r="E7" s="1">
+        <v>9</v>
+      </c>
+      <c r="F7" s="1">
+        <v>85</v>
+      </c>
+      <c r="G7" s="1">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="1">
+        <v>1027</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G8" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" s="1">
+        <v>20653</v>
+      </c>
+      <c r="D10" s="1">
+        <v>8</v>
+      </c>
+      <c r="E10" s="1">
+        <v>14</v>
+      </c>
+      <c r="F10" s="1">
+        <v>63</v>
+      </c>
+      <c r="G10" s="1">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="1">
+        <v>2452</v>
+      </c>
+      <c r="D11" s="1">
+        <v>2</v>
+      </c>
+      <c r="E11" s="1">
+        <v>3</v>
+      </c>
+      <c r="F11" s="1">
+        <v>5</v>
+      </c>
+      <c r="G11" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" s="1">
+        <v>1043</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G12" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14" t="s">
+        <v>8</v>
+      </c>
+      <c r="C14" s="1">
+        <v>21247</v>
+      </c>
+      <c r="D14" s="1">
+        <v>5</v>
+      </c>
+      <c r="E14" s="1">
+        <v>9</v>
+      </c>
+      <c r="F14" s="1">
+        <v>116</v>
+      </c>
+      <c r="G14" s="1">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15" s="1">
+        <v>2452</v>
+      </c>
+      <c r="D15" s="1">
+        <v>1</v>
+      </c>
+      <c r="E15" s="1">
+        <v>2</v>
+      </c>
+      <c r="F15" s="1">
+        <v>9</v>
+      </c>
+      <c r="G15" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="1">
+        <v>1077</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G16" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>8</v>
+      </c>
+      <c r="C18" s="1">
+        <v>23206</v>
+      </c>
+      <c r="D18" s="1">
+        <v>6</v>
+      </c>
+      <c r="E18" s="1">
+        <v>7</v>
+      </c>
+      <c r="F18" s="1">
+        <v>73</v>
+      </c>
+      <c r="G18" s="1">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>9</v>
+      </c>
+      <c r="C19" s="1">
+        <v>2481</v>
+      </c>
+      <c r="D19" s="1">
+        <v>1</v>
+      </c>
+      <c r="E19" s="1">
+        <v>3</v>
+      </c>
+      <c r="F19" s="1">
+        <v>16</v>
+      </c>
+      <c r="G19" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>17</v>
+      </c>
+      <c r="B20" t="s">
+        <v>10</v>
+      </c>
+      <c r="C20" s="1">
+        <v>1137</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G20" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>18</v>
+      </c>
+      <c r="B22" t="s">
+        <v>8</v>
+      </c>
+      <c r="C22" s="1">
+        <v>23492</v>
+      </c>
+      <c r="D22" s="1">
+        <v>19</v>
+      </c>
+      <c r="E22" s="1">
+        <v>25</v>
+      </c>
+      <c r="F22" s="1">
+        <v>165</v>
+      </c>
+      <c r="G22" s="1">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>18</v>
+      </c>
+      <c r="B23" t="s">
+        <v>9</v>
+      </c>
+      <c r="C23" s="1">
+        <v>2537</v>
+      </c>
+      <c r="D23" s="1">
+        <v>3</v>
+      </c>
+      <c r="E23" s="1">
+        <v>6</v>
+      </c>
+      <c r="F23" s="1">
+        <v>14</v>
+      </c>
+      <c r="G23" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>18</v>
+      </c>
+      <c r="B24" t="s">
+        <v>10</v>
+      </c>
+      <c r="C24" s="1">
+        <v>1142</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G24" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
+      <c r="G25" s="1"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>19</v>
+      </c>
+      <c r="B26" t="s">
+        <v>8</v>
+      </c>
+      <c r="C26" s="1">
+        <v>22676</v>
+      </c>
+      <c r="D26" s="1">
+        <v>13</v>
+      </c>
+      <c r="E26" s="1">
+        <v>28</v>
+      </c>
+      <c r="F26" s="1">
+        <v>201</v>
+      </c>
+      <c r="G26" s="1">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>19</v>
+      </c>
+      <c r="B27" t="s">
+        <v>9</v>
+      </c>
+      <c r="C27" s="1">
+        <v>2452</v>
+      </c>
+      <c r="D27" s="1">
+        <v>13</v>
+      </c>
+      <c r="E27" s="1">
+        <v>17</v>
+      </c>
+      <c r="F27" s="1">
+        <v>34</v>
+      </c>
+      <c r="G27" s="1">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>19</v>
+      </c>
+      <c r="B28" t="s">
+        <v>10</v>
+      </c>
+      <c r="C28" s="1">
+        <v>1152</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G28" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C29" s="1"/>
+      <c r="D29" s="1"/>
+      <c r="E29" s="1"/>
+      <c r="F29" s="1"/>
+      <c r="G29" s="1"/>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>20</v>
+      </c>
+      <c r="B30" t="s">
+        <v>8</v>
+      </c>
+      <c r="C30" s="1">
+        <v>13589</v>
+      </c>
+      <c r="D30" s="1">
+        <v>13</v>
+      </c>
+      <c r="E30" s="1">
+        <v>25</v>
+      </c>
+      <c r="F30" s="1">
+        <v>214</v>
+      </c>
+      <c r="G30" s="1">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>20</v>
+      </c>
+      <c r="B31" t="s">
+        <v>9</v>
+      </c>
+      <c r="C31" s="1">
+        <v>1579</v>
+      </c>
+      <c r="D31" s="1">
+        <v>5</v>
+      </c>
+      <c r="E31" s="1">
+        <v>14</v>
+      </c>
+      <c r="F31" s="1">
+        <v>22</v>
+      </c>
+      <c r="G31" s="1">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>20</v>
+      </c>
+      <c r="B32" t="s">
+        <v>10</v>
+      </c>
+      <c r="C32" s="1">
+        <v>690</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G32" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C33" s="1"/>
+      <c r="D33" s="1"/>
+      <c r="E33" s="1"/>
+      <c r="F33" s="1"/>
+      <c r="G33" s="1"/>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>21</v>
+      </c>
+      <c r="B34" t="s">
+        <v>8</v>
+      </c>
+      <c r="C34" s="1">
+        <v>13589</v>
+      </c>
+      <c r="D34" s="1">
+        <v>17</v>
+      </c>
+      <c r="E34" s="1">
+        <v>30</v>
+      </c>
+      <c r="F34" s="1">
+        <v>166</v>
+      </c>
+      <c r="G34" s="1">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>21</v>
+      </c>
+      <c r="B35" t="s">
+        <v>9</v>
+      </c>
+      <c r="C35" s="1">
+        <v>1579</v>
+      </c>
+      <c r="D35" s="1">
+        <v>6</v>
+      </c>
+      <c r="E35" s="1">
+        <v>15</v>
+      </c>
+      <c r="F35" s="1">
+        <v>25</v>
+      </c>
+      <c r="G35" s="1">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>21</v>
+      </c>
+      <c r="B36" t="s">
+        <v>10</v>
+      </c>
+      <c r="C36" s="1">
+        <v>690</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G36" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C37" s="1"/>
+      <c r="D37" s="1"/>
+      <c r="E37" s="1"/>
+      <c r="F37" s="1"/>
+      <c r="G37" s="1"/>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A38" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B38" t="s">
+        <v>8</v>
+      </c>
+      <c r="C38" s="1">
+        <v>13590</v>
+      </c>
+      <c r="D38" s="1">
+        <v>25</v>
+      </c>
+      <c r="E38" s="1">
+        <v>56</v>
+      </c>
+      <c r="F38" s="1">
+        <v>248</v>
+      </c>
+      <c r="G38" s="1">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A39" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B39" t="s">
+        <v>9</v>
+      </c>
+      <c r="C39" s="1">
+        <v>1579</v>
+      </c>
+      <c r="D39" s="1">
+        <v>8</v>
+      </c>
+      <c r="E39" s="1">
+        <v>15</v>
+      </c>
+      <c r="F39" s="1">
+        <v>32</v>
+      </c>
+      <c r="G39" s="1">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A40" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B40" t="s">
+        <v>10</v>
+      </c>
+      <c r="C40" s="1">
+        <v>690</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G40" s="1">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>1</v>
+      </c>
+      <c r="B42" t="s">
+        <v>8</v>
+      </c>
+      <c r="C42" s="1">
+        <v>13593</v>
+      </c>
+      <c r="D42" s="1">
+        <v>19</v>
+      </c>
+      <c r="E42" s="1">
+        <v>41</v>
+      </c>
+      <c r="F42" s="1">
+        <v>286</v>
+      </c>
+      <c r="G42" s="1">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>1</v>
+      </c>
+      <c r="B43" t="s">
+        <v>9</v>
+      </c>
+      <c r="C43" s="1">
+        <v>1579</v>
+      </c>
+      <c r="D43" s="1">
+        <v>15</v>
+      </c>
+      <c r="E43" s="1">
+        <v>23</v>
+      </c>
+      <c r="F43" s="1">
+        <v>34</v>
+      </c>
+      <c r="G43" s="1">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>1</v>
+      </c>
+      <c r="B44" t="s">
+        <v>10</v>
+      </c>
+      <c r="C44" s="1">
         <v>593</v>
       </c>
-      <c r="D4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G4">
+      <c r="D44" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G44" s="1">
         <v>28</v>
       </c>
     </row>
@@ -591,10 +1568,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CB74AEF-C73E-A544-B53E-5AD74CCE04D7}">
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:G44"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22:G40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -621,70 +1598,816 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="B2" t="s">
         <v>12</v>
       </c>
       <c r="C2" s="1">
-        <v>43643</v>
-      </c>
-      <c r="D2">
-        <v>235</v>
-      </c>
-      <c r="E2">
-        <v>396</v>
+        <v>43108</v>
+      </c>
+      <c r="D2" s="1">
+        <v>1</v>
+      </c>
+      <c r="E2" s="1">
+        <v>2</v>
       </c>
       <c r="F2" s="1">
-        <v>1331</v>
+        <v>5</v>
       </c>
       <c r="G2" s="1">
-        <v>2050</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="B3" t="s">
         <v>9</v>
       </c>
       <c r="C3" s="1">
-        <v>5076</v>
-      </c>
-      <c r="D3">
-        <v>42</v>
-      </c>
-      <c r="E3">
-        <v>83</v>
-      </c>
-      <c r="F3">
-        <v>79</v>
-      </c>
-      <c r="G3">
-        <v>116</v>
+        <v>5319</v>
+      </c>
+      <c r="D3" s="1">
+        <v>10</v>
+      </c>
+      <c r="E3" s="1">
+        <v>10</v>
+      </c>
+      <c r="F3" s="1">
+        <v>37</v>
+      </c>
+      <c r="G3" s="1">
+        <v>37</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="1">
+        <v>2509</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="1">
+        <v>42427</v>
+      </c>
+      <c r="D6" s="1">
+        <v>3</v>
+      </c>
+      <c r="E6" s="1">
+        <v>3</v>
+      </c>
+      <c r="F6" s="1">
+        <v>7</v>
+      </c>
+      <c r="G6" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="1">
+        <v>5243</v>
+      </c>
+      <c r="D7" s="1">
+        <v>21</v>
+      </c>
+      <c r="E7" s="1">
+        <v>26</v>
+      </c>
+      <c r="F7" s="1">
+        <v>135</v>
+      </c>
+      <c r="G7" s="1">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="1">
+        <v>2470</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G8" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" s="1">
+        <v>42849</v>
+      </c>
+      <c r="D10" s="1">
+        <v>26</v>
+      </c>
+      <c r="E10" s="1">
+        <v>43</v>
+      </c>
+      <c r="F10" s="1">
+        <v>104</v>
+      </c>
+      <c r="G10" s="1">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="1">
+        <v>5243</v>
+      </c>
+      <c r="D11" s="1">
+        <v>3</v>
+      </c>
+      <c r="E11" s="1">
+        <v>5</v>
+      </c>
+      <c r="F11" s="1">
+        <v>14</v>
+      </c>
+      <c r="G11" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" s="1">
+        <v>2493</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G12" s="1">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14" s="1">
+        <v>43101</v>
+      </c>
+      <c r="D14" s="1">
+        <v>8</v>
+      </c>
+      <c r="E14" s="1">
+        <v>26</v>
+      </c>
+      <c r="F14" s="1">
+        <v>101</v>
+      </c>
+      <c r="G14" s="1">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15" s="1">
+        <v>5243</v>
+      </c>
+      <c r="D15" s="1">
+        <v>0</v>
+      </c>
+      <c r="E15" s="1">
+        <v>2</v>
+      </c>
+      <c r="F15" s="1">
+        <v>6</v>
+      </c>
+      <c r="G15" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="1">
+        <v>2508</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G16" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>12</v>
+      </c>
+      <c r="C18" s="1">
+        <v>44689</v>
+      </c>
+      <c r="D18" s="1">
+        <v>29</v>
+      </c>
+      <c r="E18" s="1">
+        <v>54</v>
+      </c>
+      <c r="F18" s="1">
+        <v>141</v>
+      </c>
+      <c r="G18" s="1">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>9</v>
+      </c>
+      <c r="C19" s="1">
+        <v>5188</v>
+      </c>
+      <c r="D19" s="1">
+        <v>5</v>
+      </c>
+      <c r="E19" s="1">
+        <v>8</v>
+      </c>
+      <c r="F19" s="1">
+        <v>13</v>
+      </c>
+      <c r="G19" s="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>17</v>
+      </c>
+      <c r="B20" t="s">
+        <v>10</v>
+      </c>
+      <c r="C20" s="1">
+        <v>2569</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G20" s="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>18</v>
+      </c>
+      <c r="B22" t="s">
+        <v>12</v>
+      </c>
+      <c r="C22" s="1">
+        <v>45355</v>
+      </c>
+      <c r="D22" s="1">
+        <v>28</v>
+      </c>
+      <c r="E22" s="1">
+        <v>45</v>
+      </c>
+      <c r="F22" s="1">
+        <v>266</v>
+      </c>
+      <c r="G22" s="1">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>18</v>
+      </c>
+      <c r="B23" t="s">
+        <v>9</v>
+      </c>
+      <c r="C23" s="1">
+        <v>5319</v>
+      </c>
+      <c r="D23" s="1">
+        <v>7</v>
+      </c>
+      <c r="E23" s="1">
+        <v>9</v>
+      </c>
+      <c r="F23" s="1">
+        <v>35</v>
+      </c>
+      <c r="G23" s="1">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>18</v>
+      </c>
+      <c r="B24" t="s">
+        <v>10</v>
+      </c>
+      <c r="C24" s="1">
+        <v>2619</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G24" s="1">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
+      <c r="G25" s="1"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>19</v>
+      </c>
+      <c r="B26" t="s">
+        <v>12</v>
+      </c>
+      <c r="C26" s="1">
+        <v>45170</v>
+      </c>
+      <c r="D26" s="1">
+        <v>111</v>
+      </c>
+      <c r="E26" s="1">
+        <v>162</v>
+      </c>
+      <c r="F26" s="1">
+        <v>622</v>
+      </c>
+      <c r="G26" s="1">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>19</v>
+      </c>
+      <c r="B27" t="s">
+        <v>9</v>
+      </c>
+      <c r="C27" s="1">
+        <v>5243</v>
+      </c>
+      <c r="D27" s="1">
+        <v>20</v>
+      </c>
+      <c r="E27" s="1">
+        <v>28</v>
+      </c>
+      <c r="F27" s="1">
+        <v>46</v>
+      </c>
+      <c r="G27" s="1">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>19</v>
+      </c>
+      <c r="B28" t="s">
+        <v>10</v>
+      </c>
+      <c r="C28" s="1">
+        <v>2634</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G28" s="1">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C29" s="1"/>
+      <c r="D29" s="1"/>
+      <c r="E29" s="1"/>
+      <c r="F29" s="1"/>
+      <c r="G29" s="1"/>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>20</v>
+      </c>
+      <c r="B30" t="s">
+        <v>12</v>
+      </c>
+      <c r="C30" s="1">
+        <v>43645</v>
+      </c>
+      <c r="D30" s="1">
+        <v>131</v>
+      </c>
+      <c r="E30" s="1">
+        <v>205</v>
+      </c>
+      <c r="F30" s="1">
+        <v>833</v>
+      </c>
+      <c r="G30" s="1">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>20</v>
+      </c>
+      <c r="B31" t="s">
+        <v>9</v>
+      </c>
+      <c r="C31" s="1">
+        <v>5076</v>
+      </c>
+      <c r="D31" s="1">
+        <v>17</v>
+      </c>
+      <c r="E31" s="1">
+        <v>39</v>
+      </c>
+      <c r="F31" s="1">
+        <v>57</v>
+      </c>
+      <c r="G31" s="1">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>20</v>
+      </c>
+      <c r="B32" t="s">
+        <v>10</v>
+      </c>
+      <c r="C32" s="1">
+        <v>2565</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G32" s="1">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C33" s="1"/>
+      <c r="D33" s="1"/>
+      <c r="E33" s="1"/>
+      <c r="F33" s="1"/>
+      <c r="G33" s="1"/>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>21</v>
+      </c>
+      <c r="B34" t="s">
+        <v>12</v>
+      </c>
+      <c r="C34" s="1">
+        <v>43639</v>
+      </c>
+      <c r="D34" s="1">
+        <v>192</v>
+      </c>
+      <c r="E34" s="1">
+        <v>322</v>
+      </c>
+      <c r="F34" s="1">
+        <v>966</v>
+      </c>
+      <c r="G34" s="1">
+        <v>1450</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>21</v>
+      </c>
+      <c r="B35" t="s">
+        <v>9</v>
+      </c>
+      <c r="C35" s="1">
+        <v>5076</v>
+      </c>
+      <c r="D35" s="1">
+        <v>19</v>
+      </c>
+      <c r="E35" s="1">
+        <v>42</v>
+      </c>
+      <c r="F35" s="1">
+        <v>76</v>
+      </c>
+      <c r="G35" s="1">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>21</v>
+      </c>
+      <c r="B36" t="s">
+        <v>10</v>
+      </c>
+      <c r="C36" s="1">
+        <v>2565</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G36" s="1">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C37" s="1"/>
+      <c r="D37" s="1"/>
+      <c r="E37" s="1"/>
+      <c r="F37" s="1"/>
+      <c r="G37" s="1"/>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A38" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B38" t="s">
+        <v>12</v>
+      </c>
+      <c r="C38" s="1">
+        <v>43638</v>
+      </c>
+      <c r="D38" s="1">
+        <v>194</v>
+      </c>
+      <c r="E38" s="1">
+        <v>312</v>
+      </c>
+      <c r="F38" s="1">
+        <v>1009</v>
+      </c>
+      <c r="G38" s="1">
+        <v>1519</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A39" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B39" t="s">
+        <v>9</v>
+      </c>
+      <c r="C39" s="1">
+        <v>5076</v>
+      </c>
+      <c r="D39" s="1">
+        <v>37</v>
+      </c>
+      <c r="E39" s="1">
+        <v>58</v>
+      </c>
+      <c r="F39" s="1">
+        <v>79</v>
+      </c>
+      <c r="G39" s="1">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A40" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B40" t="s">
+        <v>10</v>
+      </c>
+      <c r="C40" s="1">
+        <v>2565</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G40" s="1">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
         <v>1</v>
       </c>
-      <c r="B4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="1">
+      <c r="B42" t="s">
+        <v>12</v>
+      </c>
+      <c r="C42" s="1">
+        <v>43643</v>
+      </c>
+      <c r="D42">
+        <v>235</v>
+      </c>
+      <c r="E42">
+        <v>396</v>
+      </c>
+      <c r="F42" s="1">
+        <v>1331</v>
+      </c>
+      <c r="G42" s="1">
+        <v>2050</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>1</v>
+      </c>
+      <c r="B43" t="s">
+        <v>9</v>
+      </c>
+      <c r="C43" s="1">
+        <v>5076</v>
+      </c>
+      <c r="D43">
+        <v>42</v>
+      </c>
+      <c r="E43">
+        <v>83</v>
+      </c>
+      <c r="F43">
+        <v>79</v>
+      </c>
+      <c r="G43">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>1</v>
+      </c>
+      <c r="B44" t="s">
+        <v>10</v>
+      </c>
+      <c r="C44" s="1">
         <v>2254</v>
       </c>
-      <c r="D4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G4">
+      <c r="D44" t="s">
+        <v>11</v>
+      </c>
+      <c r="E44" t="s">
+        <v>11</v>
+      </c>
+      <c r="F44" t="s">
+        <v>11</v>
+      </c>
+      <c r="G44">
         <v>179</v>
       </c>
     </row>
@@ -695,10 +2418,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E4A4030-A684-DD47-AEA0-10B8907BB09D}">
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:G44"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22:G40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -725,70 +2448,823 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="B2" t="s">
         <v>12</v>
       </c>
       <c r="C2" s="1">
-        <v>29262</v>
-      </c>
-      <c r="D2">
-        <v>164</v>
-      </c>
-      <c r="E2">
-        <v>275</v>
-      </c>
-      <c r="F2">
-        <v>721</v>
+        <v>29315</v>
+      </c>
+      <c r="D2" s="1">
+        <v>1</v>
+      </c>
+      <c r="E2" s="1">
+        <v>1</v>
+      </c>
+      <c r="F2" s="1">
+        <v>0</v>
       </c>
       <c r="G2" s="1">
-        <v>1137</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="B3" t="s">
         <v>9</v>
       </c>
       <c r="C3" s="1">
-        <v>3155</v>
-      </c>
-      <c r="D3">
-        <v>21</v>
-      </c>
-      <c r="E3">
-        <v>46</v>
-      </c>
-      <c r="F3">
-        <v>35</v>
-      </c>
-      <c r="G3">
-        <v>48</v>
+        <v>3339</v>
+      </c>
+      <c r="D3" s="1">
+        <v>11</v>
+      </c>
+      <c r="E3" s="1">
+        <v>12</v>
+      </c>
+      <c r="F3" s="1">
+        <v>92</v>
+      </c>
+      <c r="G3" s="1">
+        <v>92</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="1">
+        <v>1509</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="1">
+        <v>28791</v>
+      </c>
+      <c r="D6" s="1">
+        <v>0</v>
+      </c>
+      <c r="E6" s="1">
         <v>1</v>
       </c>
-      <c r="B4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="1">
+      <c r="F6" s="1">
+        <v>19</v>
+      </c>
+      <c r="G6" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="1">
+        <v>3258</v>
+      </c>
+      <c r="D7" s="1">
+        <v>15</v>
+      </c>
+      <c r="E7" s="1">
+        <v>21</v>
+      </c>
+      <c r="F7" s="1">
+        <v>147</v>
+      </c>
+      <c r="G7" s="1">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="1">
+        <v>1482</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G8" s="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" s="1">
+        <v>29066</v>
+      </c>
+      <c r="D10" s="1">
+        <v>10</v>
+      </c>
+      <c r="E10" s="1">
+        <v>24</v>
+      </c>
+      <c r="F10" s="1">
+        <v>60</v>
+      </c>
+      <c r="G10" s="1">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="1">
+        <v>3258</v>
+      </c>
+      <c r="D11" s="1">
+        <v>0</v>
+      </c>
+      <c r="E11" s="1">
+        <v>2</v>
+      </c>
+      <c r="F11" s="1">
+        <v>6</v>
+      </c>
+      <c r="G11" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" s="1">
+        <v>1496</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G12" s="1">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14" s="1">
+        <v>29044</v>
+      </c>
+      <c r="D14" s="1">
+        <v>9</v>
+      </c>
+      <c r="E14" s="1">
+        <v>23</v>
+      </c>
+      <c r="F14" s="1">
+        <v>85</v>
+      </c>
+      <c r="G14" s="1">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15" s="1">
+        <v>3258</v>
+      </c>
+      <c r="D15" s="1">
+        <v>1</v>
+      </c>
+      <c r="E15" s="1">
+        <v>2</v>
+      </c>
+      <c r="F15" s="1">
+        <v>9</v>
+      </c>
+      <c r="G15" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="1">
+        <v>1496</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G16" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>12</v>
+      </c>
+      <c r="C18" s="1">
+        <v>30358</v>
+      </c>
+      <c r="D18" s="1">
+        <v>17</v>
+      </c>
+      <c r="E18" s="1">
+        <v>23</v>
+      </c>
+      <c r="F18" s="1">
+        <v>178</v>
+      </c>
+      <c r="G18" s="1">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>9</v>
+      </c>
+      <c r="C19" s="1">
+        <v>3286</v>
+      </c>
+      <c r="D19" s="1">
+        <v>2</v>
+      </c>
+      <c r="E19" s="1">
+        <v>3</v>
+      </c>
+      <c r="F19" s="1">
+        <v>9</v>
+      </c>
+      <c r="G19" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>17</v>
+      </c>
+      <c r="B20" t="s">
+        <v>10</v>
+      </c>
+      <c r="C20" s="1">
+        <v>1535</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G20" s="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>18</v>
+      </c>
+      <c r="B22" t="s">
+        <v>12</v>
+      </c>
+      <c r="C22" s="1">
+        <v>30556</v>
+      </c>
+      <c r="D22" s="1">
+        <v>15</v>
+      </c>
+      <c r="E22" s="1">
+        <v>20</v>
+      </c>
+      <c r="F22" s="1">
+        <v>86</v>
+      </c>
+      <c r="G22" s="1">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>18</v>
+      </c>
+      <c r="B23" t="s">
+        <v>9</v>
+      </c>
+      <c r="C23" s="1">
+        <v>3339</v>
+      </c>
+      <c r="D23" s="1">
+        <v>3</v>
+      </c>
+      <c r="E23" s="1">
+        <v>7</v>
+      </c>
+      <c r="F23" s="1">
+        <v>38</v>
+      </c>
+      <c r="G23" s="1">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>18</v>
+      </c>
+      <c r="B24" t="s">
+        <v>10</v>
+      </c>
+      <c r="C24" s="1">
+        <v>1558</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G24" s="1">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
+      <c r="G25" s="1"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>19</v>
+      </c>
+      <c r="B26" t="s">
+        <v>12</v>
+      </c>
+      <c r="C26" s="1">
+        <v>30054</v>
+      </c>
+      <c r="D26" s="1">
+        <v>97</v>
+      </c>
+      <c r="E26" s="1">
+        <v>129</v>
+      </c>
+      <c r="F26" s="1">
+        <v>492</v>
+      </c>
+      <c r="G26" s="1">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>19</v>
+      </c>
+      <c r="B27" t="s">
+        <v>9</v>
+      </c>
+      <c r="C27" s="1">
+        <v>3258</v>
+      </c>
+      <c r="D27" s="1">
+        <v>15</v>
+      </c>
+      <c r="E27" s="1">
+        <v>21</v>
+      </c>
+      <c r="F27" s="1">
+        <v>52</v>
+      </c>
+      <c r="G27" s="1">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>19</v>
+      </c>
+      <c r="B28" t="s">
+        <v>10</v>
+      </c>
+      <c r="C28" s="1">
+        <v>1545</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G28" s="1">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C29" s="1"/>
+      <c r="D29" s="1"/>
+      <c r="E29" s="1"/>
+      <c r="F29" s="1"/>
+      <c r="G29" s="1"/>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>20</v>
+      </c>
+      <c r="B30" t="s">
+        <v>12</v>
+      </c>
+      <c r="C30" s="1">
+        <v>29268</v>
+      </c>
+      <c r="D30" s="1">
+        <v>99</v>
+      </c>
+      <c r="E30" s="1">
+        <v>151</v>
+      </c>
+      <c r="F30" s="1">
+        <v>576</v>
+      </c>
+      <c r="G30" s="1">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>20</v>
+      </c>
+      <c r="B31" t="s">
+        <v>9</v>
+      </c>
+      <c r="C31" s="1">
+        <v>3155</v>
+      </c>
+      <c r="D31" s="1">
+        <v>17</v>
+      </c>
+      <c r="E31" s="1">
+        <v>28</v>
+      </c>
+      <c r="F31" s="1">
+        <v>60</v>
+      </c>
+      <c r="G31" s="1">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>20</v>
+      </c>
+      <c r="B32" t="s">
+        <v>10</v>
+      </c>
+      <c r="C32" s="1">
+        <v>1519</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G32" s="1">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C33" s="1"/>
+      <c r="D33" s="1"/>
+      <c r="E33" s="1"/>
+      <c r="F33" s="1"/>
+      <c r="G33" s="1"/>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>21</v>
+      </c>
+      <c r="B34" t="s">
+        <v>12</v>
+      </c>
+      <c r="C34" s="1">
+        <v>29260</v>
+      </c>
+      <c r="D34" s="1">
+        <v>127</v>
+      </c>
+      <c r="E34" s="1">
+        <v>219</v>
+      </c>
+      <c r="F34" s="1">
+        <v>813</v>
+      </c>
+      <c r="G34" s="1">
+        <v>1081</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>21</v>
+      </c>
+      <c r="B35" t="s">
+        <v>9</v>
+      </c>
+      <c r="C35" s="1">
+        <v>3155</v>
+      </c>
+      <c r="D35" s="1">
+        <v>19</v>
+      </c>
+      <c r="E35" s="1">
+        <v>37</v>
+      </c>
+      <c r="F35" s="1">
+        <v>54</v>
+      </c>
+      <c r="G35" s="1">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>21</v>
+      </c>
+      <c r="B36" t="s">
+        <v>10</v>
+      </c>
+      <c r="C36" s="1">
+        <v>1519</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G36" s="1">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C37" s="1"/>
+      <c r="D37" s="1"/>
+      <c r="E37" s="1"/>
+      <c r="F37" s="1"/>
+      <c r="G37" s="1"/>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A38" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B38" t="s">
+        <v>12</v>
+      </c>
+      <c r="C38" s="1">
+        <v>29262</v>
+      </c>
+      <c r="D38" s="1">
+        <v>167</v>
+      </c>
+      <c r="E38" s="1">
+        <v>272</v>
+      </c>
+      <c r="F38" s="1">
+        <v>896</v>
+      </c>
+      <c r="G38" s="1">
+        <v>1265</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A39" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B39" t="s">
+        <v>9</v>
+      </c>
+      <c r="C39" s="1">
+        <v>3155</v>
+      </c>
+      <c r="D39" s="1">
+        <v>21</v>
+      </c>
+      <c r="E39" s="1">
+        <v>34</v>
+      </c>
+      <c r="F39" s="1">
+        <v>36</v>
+      </c>
+      <c r="G39" s="1">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A40" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B40" t="s">
+        <v>10</v>
+      </c>
+      <c r="C40" s="1">
+        <v>1519</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G40" s="1">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>1</v>
+      </c>
+      <c r="B42" t="s">
+        <v>12</v>
+      </c>
+      <c r="C42" s="1">
+        <v>29262</v>
+      </c>
+      <c r="D42">
+        <v>164</v>
+      </c>
+      <c r="E42">
+        <v>275</v>
+      </c>
+      <c r="F42">
+        <v>721</v>
+      </c>
+      <c r="G42" s="1">
+        <v>1137</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>1</v>
+      </c>
+      <c r="B43" t="s">
+        <v>9</v>
+      </c>
+      <c r="C43" s="1">
+        <v>3155</v>
+      </c>
+      <c r="D43">
+        <v>21</v>
+      </c>
+      <c r="E43">
+        <v>46</v>
+      </c>
+      <c r="F43">
+        <v>35</v>
+      </c>
+      <c r="G43">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>1</v>
+      </c>
+      <c r="B44" t="s">
+        <v>10</v>
+      </c>
+      <c r="C44" s="1">
         <v>1324</v>
       </c>
-      <c r="D4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G4">
+      <c r="D44" t="s">
+        <v>11</v>
+      </c>
+      <c r="E44" t="s">
+        <v>11</v>
+      </c>
+      <c r="F44" t="s">
+        <v>11</v>
+      </c>
+      <c r="G44">
         <v>86</v>
       </c>
     </row>
@@ -799,10 +3275,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99DA9AE7-C26D-9A4E-87A8-601AD591E175}">
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:G44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22:G40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -829,70 +3305,816 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="B2" t="s">
         <v>12</v>
       </c>
       <c r="C2" s="1">
-        <v>44506</v>
-      </c>
-      <c r="D2">
-        <v>112</v>
-      </c>
-      <c r="E2">
-        <v>215</v>
-      </c>
-      <c r="F2">
-        <v>812</v>
+        <v>41587</v>
+      </c>
+      <c r="D2" s="1">
+        <v>0</v>
+      </c>
+      <c r="E2" s="1">
+        <v>1</v>
+      </c>
+      <c r="F2" s="1">
+        <v>13</v>
       </c>
       <c r="G2" s="1">
-        <v>1137</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="B3" t="s">
         <v>9</v>
       </c>
       <c r="C3" s="1">
-        <v>5206</v>
-      </c>
-      <c r="D3">
-        <v>16</v>
-      </c>
-      <c r="E3">
-        <v>40</v>
-      </c>
-      <c r="F3">
-        <v>28</v>
-      </c>
-      <c r="G3">
-        <v>47</v>
+        <v>5341</v>
+      </c>
+      <c r="D3" s="1">
+        <v>17</v>
+      </c>
+      <c r="E3" s="1">
+        <v>18</v>
+      </c>
+      <c r="F3" s="1">
+        <v>117</v>
+      </c>
+      <c r="G3" s="1">
+        <v>126</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="1">
+        <v>2117</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="1">
+        <v>41257</v>
+      </c>
+      <c r="D6" s="1">
+        <v>2</v>
+      </c>
+      <c r="E6" s="1">
+        <v>3</v>
+      </c>
+      <c r="F6" s="1">
+        <v>3</v>
+      </c>
+      <c r="G6" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="1">
+        <v>5266</v>
+      </c>
+      <c r="D7" s="1">
+        <v>6</v>
+      </c>
+      <c r="E7" s="1">
+        <v>21</v>
+      </c>
+      <c r="F7" s="1">
+        <v>32</v>
+      </c>
+      <c r="G7" s="1">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="1">
+        <v>2097</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G8" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" s="1">
+        <v>42395</v>
+      </c>
+      <c r="D10" s="1">
+        <v>14</v>
+      </c>
+      <c r="E10" s="1">
+        <v>28</v>
+      </c>
+      <c r="F10" s="1">
+        <v>102</v>
+      </c>
+      <c r="G10" s="1">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="1">
+        <v>5266</v>
+      </c>
+      <c r="D11" s="1">
+        <v>3</v>
+      </c>
+      <c r="E11" s="1">
+        <v>6</v>
+      </c>
+      <c r="F11" s="1">
+        <v>4</v>
+      </c>
+      <c r="G11" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" s="1">
+        <v>2154</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G12" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14" s="1">
+        <v>43117</v>
+      </c>
+      <c r="D14" s="1">
+        <v>10</v>
+      </c>
+      <c r="E14" s="1">
+        <v>21</v>
+      </c>
+      <c r="F14" s="1">
+        <v>22</v>
+      </c>
+      <c r="G14" s="1">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15" s="1">
+        <v>5266</v>
+      </c>
+      <c r="D15" s="1">
         <v>1</v>
       </c>
-      <c r="B4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="1">
+      <c r="E15" s="1">
+        <v>7</v>
+      </c>
+      <c r="F15" s="1">
+        <v>4</v>
+      </c>
+      <c r="G15" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="1">
+        <v>2218</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G16" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>12</v>
+      </c>
+      <c r="C18" s="1">
+        <v>44107</v>
+      </c>
+      <c r="D18" s="1">
+        <v>11</v>
+      </c>
+      <c r="E18" s="1">
+        <v>20</v>
+      </c>
+      <c r="F18" s="1">
+        <v>96</v>
+      </c>
+      <c r="G18" s="1">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>9</v>
+      </c>
+      <c r="C19" s="1">
+        <v>5341</v>
+      </c>
+      <c r="D19" s="1">
+        <v>4</v>
+      </c>
+      <c r="E19" s="1">
+        <v>7</v>
+      </c>
+      <c r="F19" s="1">
+        <v>12</v>
+      </c>
+      <c r="G19" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>17</v>
+      </c>
+      <c r="B20" t="s">
+        <v>10</v>
+      </c>
+      <c r="C20" s="1">
+        <v>2263</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G20" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>18</v>
+      </c>
+      <c r="B22" t="s">
+        <v>12</v>
+      </c>
+      <c r="C22" s="1">
+        <v>44337</v>
+      </c>
+      <c r="D22" s="1">
+        <v>19</v>
+      </c>
+      <c r="E22" s="1">
+        <v>30</v>
+      </c>
+      <c r="F22" s="1">
+        <v>53</v>
+      </c>
+      <c r="G22" s="1">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>18</v>
+      </c>
+      <c r="B23" t="s">
+        <v>9</v>
+      </c>
+      <c r="C23" s="1">
+        <v>5341</v>
+      </c>
+      <c r="D23" s="1">
+        <v>5</v>
+      </c>
+      <c r="E23" s="1">
+        <v>11</v>
+      </c>
+      <c r="F23" s="1">
+        <v>10</v>
+      </c>
+      <c r="G23" s="1">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>18</v>
+      </c>
+      <c r="B24" t="s">
+        <v>10</v>
+      </c>
+      <c r="C24" s="1">
+        <v>2274</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G24" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
+      <c r="G25" s="1"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>19</v>
+      </c>
+      <c r="B26" t="s">
+        <v>12</v>
+      </c>
+      <c r="C26" s="1">
+        <v>43962</v>
+      </c>
+      <c r="D26" s="1">
+        <v>79</v>
+      </c>
+      <c r="E26" s="1">
+        <v>113</v>
+      </c>
+      <c r="F26" s="1">
+        <v>286</v>
+      </c>
+      <c r="G26" s="1">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>19</v>
+      </c>
+      <c r="B27" t="s">
+        <v>9</v>
+      </c>
+      <c r="C27" s="1">
+        <v>5266</v>
+      </c>
+      <c r="D27" s="1">
+        <v>11</v>
+      </c>
+      <c r="E27" s="1">
+        <v>19</v>
+      </c>
+      <c r="F27" s="1">
+        <v>21</v>
+      </c>
+      <c r="G27" s="1">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>19</v>
+      </c>
+      <c r="B28" t="s">
+        <v>10</v>
+      </c>
+      <c r="C28" s="1">
+        <v>2274</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G28" s="1">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C29" s="1"/>
+      <c r="D29" s="1"/>
+      <c r="E29" s="1"/>
+      <c r="F29" s="1"/>
+      <c r="G29" s="1"/>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>20</v>
+      </c>
+      <c r="B30" t="s">
+        <v>12</v>
+      </c>
+      <c r="C30" s="1">
+        <v>43662</v>
+      </c>
+      <c r="D30" s="1">
+        <v>110</v>
+      </c>
+      <c r="E30" s="1">
+        <v>190</v>
+      </c>
+      <c r="F30" s="1">
+        <v>502</v>
+      </c>
+      <c r="G30" s="1">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>20</v>
+      </c>
+      <c r="B31" t="s">
+        <v>9</v>
+      </c>
+      <c r="C31" s="1">
+        <v>5206</v>
+      </c>
+      <c r="D31" s="1">
+        <v>21</v>
+      </c>
+      <c r="E31" s="1">
+        <v>44</v>
+      </c>
+      <c r="F31" s="1">
+        <v>38</v>
+      </c>
+      <c r="G31" s="1">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>20</v>
+      </c>
+      <c r="B32" t="s">
+        <v>10</v>
+      </c>
+      <c r="C32" s="1">
+        <v>2252</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G32" s="1">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C33" s="1"/>
+      <c r="D33" s="1"/>
+      <c r="E33" s="1"/>
+      <c r="F33" s="1"/>
+      <c r="G33" s="1"/>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>21</v>
+      </c>
+      <c r="B34" t="s">
+        <v>12</v>
+      </c>
+      <c r="C34" s="1">
+        <v>43657</v>
+      </c>
+      <c r="D34" s="1">
+        <v>96</v>
+      </c>
+      <c r="E34" s="1">
+        <v>204</v>
+      </c>
+      <c r="F34" s="1">
+        <v>554</v>
+      </c>
+      <c r="G34" s="1">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>21</v>
+      </c>
+      <c r="B35" t="s">
+        <v>9</v>
+      </c>
+      <c r="C35" s="1">
+        <v>5206</v>
+      </c>
+      <c r="D35" s="1">
+        <v>23</v>
+      </c>
+      <c r="E35" s="1">
+        <v>43</v>
+      </c>
+      <c r="F35" s="1">
+        <v>25</v>
+      </c>
+      <c r="G35" s="1">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>21</v>
+      </c>
+      <c r="B36" t="s">
+        <v>10</v>
+      </c>
+      <c r="C36" s="1">
+        <v>2252</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G36" s="1">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C37" s="1"/>
+      <c r="D37" s="1"/>
+      <c r="E37" s="1"/>
+      <c r="F37" s="1"/>
+      <c r="G37" s="1"/>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A38" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B38" t="s">
+        <v>12</v>
+      </c>
+      <c r="C38" s="1">
+        <v>43650</v>
+      </c>
+      <c r="D38" s="1">
+        <v>115</v>
+      </c>
+      <c r="E38" s="1">
+        <v>204</v>
+      </c>
+      <c r="F38" s="1">
+        <v>601</v>
+      </c>
+      <c r="G38" s="1">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A39" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B39" t="s">
+        <v>9</v>
+      </c>
+      <c r="C39" s="1">
+        <v>5206</v>
+      </c>
+      <c r="D39" s="1">
+        <v>15</v>
+      </c>
+      <c r="E39" s="1">
+        <v>26</v>
+      </c>
+      <c r="F39" s="1">
+        <v>50</v>
+      </c>
+      <c r="G39" s="1">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A40" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B40" t="s">
+        <v>10</v>
+      </c>
+      <c r="C40" s="1">
+        <v>2252</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G40" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>1</v>
+      </c>
+      <c r="B42" t="s">
+        <v>12</v>
+      </c>
+      <c r="C42" s="1">
+        <v>44506</v>
+      </c>
+      <c r="D42">
+        <v>112</v>
+      </c>
+      <c r="E42">
+        <v>215</v>
+      </c>
+      <c r="F42">
+        <v>812</v>
+      </c>
+      <c r="G42" s="1">
+        <v>1137</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>1</v>
+      </c>
+      <c r="B43" t="s">
+        <v>9</v>
+      </c>
+      <c r="C43" s="1">
+        <v>5206</v>
+      </c>
+      <c r="D43">
+        <v>16</v>
+      </c>
+      <c r="E43">
+        <v>40</v>
+      </c>
+      <c r="F43">
+        <v>28</v>
+      </c>
+      <c r="G43">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>1</v>
+      </c>
+      <c r="B44" t="s">
+        <v>10</v>
+      </c>
+      <c r="C44" s="1">
         <v>1792</v>
       </c>
-      <c r="D4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G4">
+      <c r="D44" t="s">
+        <v>11</v>
+      </c>
+      <c r="E44" t="s">
+        <v>11</v>
+      </c>
+      <c r="F44" t="s">
+        <v>11</v>
+      </c>
+      <c r="G44">
         <v>99</v>
       </c>
     </row>

--- a/Dati contagi nelle scuole/Regioni/Friuli-Venezia Giulia/RILEVAZIONE COVID-19 NELLE SCUOLE STATALI DEL FVG_regionale.xlsx
+++ b/Dati contagi nelle scuole/Regioni/Friuli-Venezia Giulia/RILEVAZIONE COVID-19 NELLE SCUOLE STATALI DEL FVG_regionale.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/francescobranda/Desktop/Università/Scientific_Papers/Personal/Work_in_progress/COVID-19/Davide Tosi/Orizzonte Scuola /Regioni/Friuli-Venezia Giulia/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFBBF3D8-8DF1-3F4B-A4F2-88E6BC63F818}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75B93CA8-BBE1-2242-8BC9-4D377209C11E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16420" yWindow="760" windowWidth="12380" windowHeight="15500" activeTab="4" xr2:uid="{22C4DE2E-C98A-5A4E-BEE0-1E8E21B520F3}"/>
+    <workbookView xWindow="16420" yWindow="760" windowWidth="12380" windowHeight="15500" xr2:uid="{22C4DE2E-C98A-5A4E-BEE0-1E8E21B520F3}"/>
   </bookViews>
   <sheets>
     <sheet name="Personale ATA" sheetId="1" r:id="rId1"/>
@@ -462,8 +462,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{121A6DDE-E74E-2542-80AB-86B57FB1660E}">
   <dimension ref="A1:F12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3277,8 +3277,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99DA9AE7-C26D-9A4E-87A8-601AD591E175}">
   <dimension ref="A1:G44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22:G40"/>
+    <sheetView topLeftCell="A39" workbookViewId="0">
+      <selection activeCell="A46" sqref="A46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
